--- a/data/trans_dic/P7A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &gt; 60 años</t>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 40,15</t>
+          <t>3,27; 29,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,03; 41,14</t>
+          <t>3,07; 28,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,56; 37,8</t>
+          <t>0,0; 17,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 36,5</t>
+          <t>0,0; 13,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 26,24</t>
+          <t>10,5; 40,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 25,62</t>
+          <t>6,25; 26,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 24,01</t>
+          <t>6,55; 27,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 22,46</t>
+          <t>6,93; 29,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 28,7</t>
+          <t>6,39; 27,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,71; 29,3</t>
+          <t>7,37; 30,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,61; 28,19</t>
+          <t>7,73; 24,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 28,01</t>
+          <t>7,91; 24,13</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 19,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 16,86</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 30,51</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>16,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 27,77</t>
+          <t>9,06; 37,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,58; 29,48</t>
+          <t>8,99; 37,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 26,25</t>
+          <t>7,47; 33,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 21,21</t>
+          <t>3,59; 24,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 19,22</t>
+          <t>3,82; 27,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 19,01</t>
+          <t>3,77; 20,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 18,07</t>
+          <t>3,57; 20,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 21,12</t>
+          <t>3,3; 19,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 20,62</t>
+          <t>5,35; 24,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 20,77</t>
+          <t>3,79; 21,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,98; 18,99</t>
+          <t>9,39; 25,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 17,72</t>
+          <t>9,48; 25,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 22,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 20,85</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 20,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 22,04</t>
+          <t>8,88; 27,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 20,77</t>
+          <t>7,82; 24,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 22,67</t>
+          <t>9,25; 28,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 22,34</t>
+          <t>7,7; 27,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 15,39</t>
+          <t>5,08; 24,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 15,36</t>
+          <t>3,43; 13,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 14,83</t>
+          <t>2,66; 12,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 15,87</t>
+          <t>2,04; 11,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,52</t>
+          <t>2,19; 11,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,98</t>
+          <t>3,01; 22,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,96</t>
+          <t>6,97; 16,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,37</t>
+          <t>5,74; 14,87</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 15,58</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 15,95</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 19,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16,16%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>13,99%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,63%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,63%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,15%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16,56%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,57%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16,69%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>16,37%</t>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,94; 21,87</t>
+          <t>5,4; 19,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 21,31</t>
+          <t>4,21; 19,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 22,81</t>
+          <t>6,4; 22,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 22,3</t>
+          <t>6,55; 23,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 24,16</t>
+          <t>6,03; 22,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 25,71</t>
+          <t>9,48; 23,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 24,38</t>
+          <t>10,04; 24,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 24,63</t>
+          <t>8,99; 23,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 20,88</t>
+          <t>9,03; 23,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 20,95</t>
+          <t>14,99; 30,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,64; 21,13</t>
+          <t>9,66; 19,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 20,81</t>
+          <t>9,65; 19,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 20,37</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 20,73</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 24,04</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57,76%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,27%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>71,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>72,57%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>56,61%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>57,17%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>56,95%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>91,92%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,58; 68,13</t>
+          <t>32,35; 59,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,0; 67,9</t>
+          <t>30,97; 58,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,42; 67,66</t>
+          <t>31,75; 58,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,25; 68,34</t>
+          <t>32,86; 59,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,81; 76,74</t>
+          <t>82,43; 98,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,05; 77,95</t>
+          <t>56,46; 80,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>61,82; 79,25</t>
+          <t>58,62; 82,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,19; 76,24</t>
+          <t>58,61; 83,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56,61; 69,26</t>
+          <t>57,78; 82,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,33; 69,25</t>
+          <t>79,07; 96,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,77; 70,73</t>
+          <t>45,81; 64,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>56,08; 69,98</t>
+          <t>45,7; 65,36</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>46,06; 66,13</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>46,6; 65,84</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>85,5; 95,81</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>96,5%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>96,6%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>96,74%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>97,21%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,44; 100,0</t>
+          <t>88,44; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,62; 100,0</t>
+          <t>88,2; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,45; 100,0</t>
+          <t>88,98; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,31; 100,0</t>
+          <t>87,25; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,04; 97,07</t>
+          <t>86,73; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>85,28; 96,83</t>
+          <t>85,9; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,37; 98,1</t>
+          <t>86,12; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,28; 97,84</t>
+          <t>85,85; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,74</t>
+          <t>87,59; 100,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>90,19; 97,61</t>
+          <t>90,62; 100,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>91,52; 98,05</t>
+          <t>90,15; 98,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>91,42; 98,02</t>
+          <t>90,21; 98,96</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>90,49; 99,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>91,05; 99,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>92,05; 99,25</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>29,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>30,04%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>38,42%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,72; 40,1</t>
+          <t>25,41; 36,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,95; 38,95</t>
+          <t>24,01; 35,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,82</t>
+          <t>23,48; 34,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,56; 36,62</t>
+          <t>21,0; 32,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,16; 38,11</t>
+          <t>29,76; 43,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,38; 37,01</t>
+          <t>24,99; 33,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,36; 37,51</t>
+          <t>25,6; 34,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,47; 41,08</t>
+          <t>24,46; 33,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,67; 37,22</t>
+          <t>25,28; 34,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,82; 36,51</t>
+          <t>33,48; 45,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,34; 36,24</t>
+          <t>26,26; 33,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,19; 37,13</t>
+          <t>26,52; 33,58</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 32,1</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 31,79</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>34,03; 42,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &gt; 60 años (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13404</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5784</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5386</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32329</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18119</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21112</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18459</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16812</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24643</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29103</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34516</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24243</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22198</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>56972</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2812; 25056</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3285; 31025</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18120</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17194</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14914; 57869</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7351; 31483</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8782; 36458</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7959; 34081</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7507; 32794</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10716; 43787</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15752; 48977</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19069; 58157</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11288; 43139</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10520; 41322</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33663; 87742</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29012</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36162</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26833</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17478</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27524</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14218</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17367</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11293</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16245</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15118</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43229</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53529</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>38126</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>33723</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>42642</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12402; 51484</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15164; 63997</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10708; 48336</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5544; 38530</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8702; 61777</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5021; 27309</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5899; 34208</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4181; 24465</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6755; 30912</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5917; 32859</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25368; 67811</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31651; 83447</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21744; 61243</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18677; 58506</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21020; 77165</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22862</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23473</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22309</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21718</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23289</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15731</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17012</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11836</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11898</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20752</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38593</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40485</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34145</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>33617</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>44041</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12413; 37985</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12669; 40131</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12429; 37735</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10604; 37916</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9166; 43825</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7398; 28910</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7020; 32153</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4267; 23262</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4381; 23261</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7212; 54891</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24767; 59408</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24469; 63346</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20967; 53545</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19618; 53927</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24845; 81327</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19034</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19493</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>20949</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20970</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23897</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30905</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>36864</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27664</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25710</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>47200</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>49939</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56357</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>48613</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>46679</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>71097</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8829; 32654</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7761; 35744</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10198; 36249</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10109; 35864</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11838; 44426</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18130; 44840</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21915; 52979</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16385; 42875</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15242; 39390</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31631; 64832</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34262; 70172</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38863; 80318</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>32038; 69587</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>30906; 66998</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>50731; 97913</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64901</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71829</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>57821</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>144659</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71224</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>83076</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>68085</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65125</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>123467</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>136125</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>154906</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>129147</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>122946</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>268125</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44932; 82132</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48752; 91906</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>41930; 77875</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40483; 73631</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>127478; 151723</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>58421; 83620</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>68115; 95529</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>54982; 78136</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>53548; 76241</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>108367; 132119</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>111023; 156820</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>125053; 178853</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>104047; 149379</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>100598; 142125</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>249393; 279487</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>88156</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>106745</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>85397</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>87807</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>134373</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>102143</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>131522</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>100524</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>106388</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>204533</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>190299</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>238267</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>185921</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>194195</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>338906</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>79805; 90237</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>96413; 109317</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77710; 87335</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>78639; 90133</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>119538; 137831</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>91932; 107022</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>118499; 137602</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>90263; 105138</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>96885; 110607</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>191037; 210818</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>177837; 195183</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>222745; 244347</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>174175; 190548</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>182768; 198969</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>320943; 346040</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>234949</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>271106</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>222334</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>211180</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>386070</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>252340</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>306953</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>237861</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>242177</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>435714</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>487289</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>578059</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>460195</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>453357</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>821784</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>191932; 276689</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>213424; 316590</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>179019; 261667</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>165291; 253485</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>309156; 450421</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>216926; 294574</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>265055; 357922</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>203512; 275896</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>206410; 281137</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>368403; 497046</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>426300; 544957</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>510375; 646131</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>402749; 511707</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>397974; 509717</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>727834; 910412</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>